--- a/new_tpcamp1.xlsx
+++ b/new_tpcamp1.xlsx
@@ -49,7 +49,7 @@
     <x:t>IsModified/Added</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2</x:t>
+    <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2.TestCase_1</x:t>
